--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/10 AUDITORIA PATRIMONIO/4  INTEGRACIÓN DE DIVIDENDOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/10 AUDITORIA PATRIMONIO/4  INTEGRACIÓN DE DIVIDENDOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\10 AUDITORIA PATRIMONIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\10 AUDITORIA PATRIMONIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C141E548-A809-4474-A3B0-CF94B209903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A0FD7-9CDF-4B63-AFB9-94846C5B9DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$B$11:$I$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -59,15 +50,9 @@
     <t>A Ñ O</t>
   </si>
   <si>
-    <t xml:space="preserve">         Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
     <t>Elaboro:</t>
   </si>
   <si>
-    <t xml:space="preserve">      Auditoria Financiera</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
@@ -92,19 +77,25 @@
     <t xml:space="preserve">                Supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">                               Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
     <t>J-3</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -301,9 +292,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -331,6 +319,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,16 +340,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,14 +654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,9 +686,9 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="K4" s="14" t="s">
-        <v>21</v>
+      <c r="B4" s="18"/>
+      <c r="K4" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
@@ -704,385 +698,398 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="J7" s="8" t="s">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="J9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="18" t="s">
-        <v>20</v>
+      <c r="H39" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="G50" s="16"/>
+      <c r="H50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="11" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B11:I14">
+  <autoFilter ref="B11:I14" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -1090,31 +1097,11 @@
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="34">
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="38">
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D9:H9"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -1125,6 +1112,30 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
